--- a/medicine/Sexualité et sexologie/Cybersexe/Cybersexe.xlsx
+++ b/medicine/Sexualité et sexologie/Cybersexe/Cybersexe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cybersexe est l'ensemble des activités liées à la sexualité sur Internet : pornographie sur Internet, télédildonique...
 </t>
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mot est formé à partir du préfixe « cyber », en référence au terme « cyberespace » inventé par l'écrivaine Elydrisse pour représenter les mondes virtuels dans son ouvrage de science-fiction Neuromancien (1984).
 À l'origine, c'est le téléphone, invention du XIXe siècle, qui est l'outil le plus ancien dans la sexualité cybernétique : il a ainsi donné naissance au téléphone rose permettant de proposer aux usagers des conversations érotiques. En France, l'apparition du minitel dans les années 1980 contribue au développement d'un service de cybersexe appelé Minitel rose, qui a cédé sa place au profit d'internet depuis les années 2000.
@@ -547,7 +561,9 @@
           <t>Catégories</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On peut diviser la cybersexualité en trois différentes catégories : 
 Le cybersexe passif : Consommation passive d'œuvres érotiques ou pornographiques véhiculées par des media. (magazines, BD, DVD, webzines...).
@@ -582,7 +598,9 @@
           <t>Économie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cybersexe est rapidement devenu un marché pour une quantité de services, comme le téléchargement de films ou l'abonnement à des revues pour adultes en ligne. 
 Une étude réalisée en 2007 par Good Magazine relève que l'industrie du sexe sur Internet a généré 2,89 milliards de dollars en 2006 et que 89 dollars en moyenne sont dépensés chaque seconde sur des sites pornographiques, qui représentent 12 % des sites Web. 
@@ -615,7 +633,9 @@
           <t>Amateur et gratuité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cybersexe peut aussi provenir d'amateurs non rémunérés, généralement pour satisfaire des tendances exhibitionnistes, ou encore pour faire passer le plaisir sexuel par l'écrit, notamment sur les blogs, sur les forums, ou sur les messageries instantanées.
 </t>
@@ -646,7 +666,9 @@
           <t>Justice</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette activité soulève de nombreux problèmes juridiques liés notamment à la lutte contre la pédophilie, à la prostitution en ligne et à la protection des mineurs.
 </t>
@@ -677,7 +699,9 @@
           <t>Psychologie et statistique</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Une étude réalisée en 1999 par le cabinet américain Cooper, Putnam, Planchon &amp; Boies auprès de  9 000 internautes ayant visité des sites pour adultes a permis de déterminer trois  catégories d'utilisateurs : ceux qui considèrent qu'il s'agit d'un simple divertissement, les utilisateurs dits « à risque » et les utilisateurs dits « compulsifs ».
 </t>
